--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2248,10 +2248,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111667287</v>
+        <v>111668160</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>89790</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2264,35 +2264,32 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Lunglav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>628191.351562822</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R15" t="n">
-        <v>6944014.155575473</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2343,6 +2340,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2361,10 +2359,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111667338</v>
+        <v>111668569</v>
       </c>
       <c r="B16" t="n">
-        <v>89425</v>
+        <v>77550</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2377,35 +2375,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5442</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>628206.6965146795</v>
+        <v>627931.2258218131</v>
       </c>
       <c r="R16" t="n">
-        <v>6944047.015808343</v>
+        <v>6943686.026669092</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2474,10 +2472,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111667877</v>
+        <v>111667763</v>
       </c>
       <c r="B17" t="n">
-        <v>56543</v>
+        <v>89845</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2486,25 +2484,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103021</v>
+        <v>1209</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2515,10 +2513,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>628073.1002953692</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R17" t="n">
-        <v>6944660.366756786</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2587,7 +2585,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111668313</v>
+        <v>111667877</v>
       </c>
       <c r="B18" t="n">
         <v>56543</v>
@@ -2628,10 +2626,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>627869.5672010599</v>
+        <v>628073.1002953692</v>
       </c>
       <c r="R18" t="n">
-        <v>6944134.919311633</v>
+        <v>6944660.366756786</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2700,10 +2698,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111668151</v>
+        <v>111668301</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,21 +2714,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2741,10 +2739,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>627992.8558976713</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R19" t="n">
-        <v>6944372.443055111</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2813,10 +2811,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111668109</v>
+        <v>111667731</v>
       </c>
       <c r="B20" t="n">
-        <v>5135</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2825,47 +2823,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>105930</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>628016.3600143436</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R20" t="n">
-        <v>6944480.738271755</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2916,7 +2906,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3161,7 +3150,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111667927</v>
+        <v>111667081</v>
       </c>
       <c r="B23" t="n">
         <v>77550</v>
@@ -3198,14 +3187,14 @@
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>628070.1241137966</v>
+        <v>628030.2196984198</v>
       </c>
       <c r="R23" t="n">
-        <v>6944749.195084839</v>
+        <v>6943835.983260213</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3274,10 +3263,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111667281</v>
+        <v>111668151</v>
       </c>
       <c r="B24" t="n">
-        <v>85715</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3290,35 +3279,35 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>510</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>628196.0116143352</v>
+        <v>627992.8558976713</v>
       </c>
       <c r="R24" t="n">
-        <v>6944024.937745438</v>
+        <v>6944372.443055111</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3387,7 +3376,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111668569</v>
+        <v>111667778</v>
       </c>
       <c r="B25" t="n">
         <v>77550</v>
@@ -3424,14 +3413,14 @@
       <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>627931.2258218131</v>
+        <v>628041.295580395</v>
       </c>
       <c r="R25" t="n">
-        <v>6943686.026669092</v>
+        <v>6944396.900308819</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3500,10 +3489,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111667773</v>
+        <v>111667427</v>
       </c>
       <c r="B26" t="n">
-        <v>89790</v>
+        <v>77550</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3516,32 +3505,35 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6040186</v>
+        <v>185</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>628028.5695976926</v>
+        <v>628238.2251299906</v>
       </c>
       <c r="R26" t="n">
-        <v>6944391.799111729</v>
+        <v>6944162.548277185</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3592,7 +3584,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3611,7 +3602,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111666918</v>
+        <v>111667927</v>
       </c>
       <c r="B27" t="n">
         <v>77550</v>
@@ -3648,14 +3639,14 @@
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>627981.5521892406</v>
+        <v>628070.1241137966</v>
       </c>
       <c r="R27" t="n">
-        <v>6943733.609182604</v>
+        <v>6944749.195084839</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3724,7 +3715,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111667725</v>
+        <v>111667041</v>
       </c>
       <c r="B28" t="n">
         <v>77550</v>
@@ -3761,14 +3752,14 @@
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>628005.9220808987</v>
+        <v>627994.5336875709</v>
       </c>
       <c r="R28" t="n">
-        <v>6944356.817101943</v>
+        <v>6943827.688791481</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3837,10 +3828,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111667041</v>
+        <v>111668109</v>
       </c>
       <c r="B29" t="n">
-        <v>77550</v>
+        <v>5135</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3849,39 +3840,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>185</v>
+        <v>105930</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>627994.5336875709</v>
+        <v>628016.3600143436</v>
       </c>
       <c r="R29" t="n">
-        <v>6943827.688791481</v>
+        <v>6944480.738271755</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3932,6 +3931,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111668169</v>
+        <v>111667287</v>
       </c>
       <c r="B30" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3966,35 +3966,35 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>627989.210128115</v>
+        <v>628191.351562822</v>
       </c>
       <c r="R30" t="n">
-        <v>6944335.430490699</v>
+        <v>6944014.155575473</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111668301</v>
+        <v>111667231</v>
       </c>
       <c r="B31" t="n">
         <v>77550</v>
@@ -4100,14 +4100,14 @@
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>627869.5672010599</v>
+        <v>628160.9420623753</v>
       </c>
       <c r="R31" t="n">
-        <v>6944134.919311633</v>
+        <v>6944048.470567195</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111667081</v>
+        <v>111666918</v>
       </c>
       <c r="B32" t="n">
         <v>77550</v>
@@ -4217,10 +4217,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>628030.2196984198</v>
+        <v>627981.5521892406</v>
       </c>
       <c r="R32" t="n">
-        <v>6943835.983260213</v>
+        <v>6943733.609182604</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111667231</v>
+        <v>111668313</v>
       </c>
       <c r="B33" t="n">
-        <v>77550</v>
+        <v>56543</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4305,35 +4305,35 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>185</v>
+        <v>103021</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>628160.9420623753</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R33" t="n">
-        <v>6944048.470567195</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111667731</v>
+        <v>111668169</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4418,21 +4418,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4443,10 +4443,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>628005.9220808987</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R34" t="n">
-        <v>6944356.817101943</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111667427</v>
+        <v>111667725</v>
       </c>
       <c r="B35" t="n">
         <v>77550</v>
@@ -4552,14 +4552,14 @@
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>628238.2251299906</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R35" t="n">
-        <v>6944162.548277185</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4628,10 +4628,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111668160</v>
+        <v>111667281</v>
       </c>
       <c r="B36" t="n">
-        <v>89790</v>
+        <v>85715</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4644,32 +4644,35 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6040186</v>
+        <v>510</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Doftskinn</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>627989.210128115</v>
+        <v>628196.0116143352</v>
       </c>
       <c r="R36" t="n">
-        <v>6944335.430490699</v>
+        <v>6944024.937745438</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4720,7 +4723,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4739,10 +4741,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111667763</v>
+        <v>111667773</v>
       </c>
       <c r="B37" t="n">
-        <v>89845</v>
+        <v>89790</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4751,29 +4753,26 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1209</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Rynkskinn</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
@@ -4834,6 +4833,7 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111667778</v>
+        <v>111667338</v>
       </c>
       <c r="B38" t="n">
-        <v>77550</v>
+        <v>89425</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4868,35 +4868,35 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>185</v>
+        <v>5442</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>628041.295580395</v>
+        <v>628206.6965146795</v>
       </c>
       <c r="R38" t="n">
-        <v>6944396.900308819</v>
+        <v>6944047.015808343</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2248,10 +2248,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111668160</v>
+        <v>111668301</v>
       </c>
       <c r="B15" t="n">
-        <v>89790</v>
+        <v>77550</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2264,32 +2264,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6040186</v>
+        <v>185</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>627989.210128115</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R15" t="n">
-        <v>6944335.430490699</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2340,7 +2343,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2359,10 +2361,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111668569</v>
+        <v>111667763</v>
       </c>
       <c r="B16" t="n">
-        <v>77550</v>
+        <v>89845</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2371,39 +2373,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>1209</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>627931.2258218131</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R16" t="n">
-        <v>6943686.026669092</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2472,10 +2474,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111667763</v>
+        <v>111668151</v>
       </c>
       <c r="B17" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2484,25 +2486,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2513,10 +2515,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>628028.5695976926</v>
+        <v>627992.8558976713</v>
       </c>
       <c r="R17" t="n">
-        <v>6944391.799111729</v>
+        <v>6944372.443055111</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2585,10 +2587,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111667877</v>
+        <v>111668160</v>
       </c>
       <c r="B18" t="n">
-        <v>56543</v>
+        <v>89790</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2601,35 +2603,32 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>628073.1002953692</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R18" t="n">
-        <v>6944660.366756786</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2680,6 +2679,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111668301</v>
+        <v>111668569</v>
       </c>
       <c r="B19" t="n">
         <v>77550</v>
@@ -2735,14 +2735,14 @@
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>627869.5672010599</v>
+        <v>627931.2258218131</v>
       </c>
       <c r="R19" t="n">
-        <v>6944134.919311633</v>
+        <v>6943686.026669092</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111667731</v>
+        <v>111668169</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2827,21 +2827,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>628005.9220808987</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R20" t="n">
-        <v>6944356.817101943</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111667471</v>
+        <v>111667427</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2940,35 +2940,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>628242.7901880945</v>
+        <v>628238.2251299906</v>
       </c>
       <c r="R21" t="n">
-        <v>6944199.598880037</v>
+        <v>6944162.548277185</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111667977</v>
+        <v>111667471</v>
       </c>
       <c r="B22" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3053,21 +3053,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>628025.0361159063</v>
+        <v>628242.7901880945</v>
       </c>
       <c r="R22" t="n">
-        <v>6944745.60709906</v>
+        <v>6944199.598880037</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111667081</v>
+        <v>111668313</v>
       </c>
       <c r="B23" t="n">
-        <v>77550</v>
+        <v>56543</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3166,35 +3166,35 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>185</v>
+        <v>103021</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>628030.2196984198</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R23" t="n">
-        <v>6943835.983260213</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3263,10 +3263,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111668151</v>
+        <v>111667231</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3279,35 +3279,35 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>627992.8558976713</v>
+        <v>628160.9420623753</v>
       </c>
       <c r="R24" t="n">
-        <v>6944372.443055111</v>
+        <v>6944048.470567195</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111667778</v>
+        <v>111666918</v>
       </c>
       <c r="B25" t="n">
         <v>77550</v>
@@ -3413,14 +3413,14 @@
       <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>628041.295580395</v>
+        <v>627981.5521892406</v>
       </c>
       <c r="R25" t="n">
-        <v>6944396.900308819</v>
+        <v>6943733.609182604</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111667427</v>
+        <v>111667041</v>
       </c>
       <c r="B26" t="n">
         <v>77550</v>
@@ -3526,14 +3526,14 @@
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>628238.2251299906</v>
+        <v>627994.5336875709</v>
       </c>
       <c r="R26" t="n">
-        <v>6944162.548277185</v>
+        <v>6943827.688791481</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111667927</v>
+        <v>111667977</v>
       </c>
       <c r="B27" t="n">
         <v>77550</v>
@@ -3643,10 +3643,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>628070.1241137966</v>
+        <v>628025.0361159063</v>
       </c>
       <c r="R27" t="n">
-        <v>6944749.195084839</v>
+        <v>6944745.60709906</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3715,10 +3715,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111667041</v>
+        <v>111667338</v>
       </c>
       <c r="B28" t="n">
-        <v>77550</v>
+        <v>89425</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3731,35 +3731,35 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>185</v>
+        <v>5442</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>627994.5336875709</v>
+        <v>628206.6965146795</v>
       </c>
       <c r="R28" t="n">
-        <v>6943827.688791481</v>
+        <v>6944047.015808343</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111668109</v>
+        <v>111667081</v>
       </c>
       <c r="B29" t="n">
-        <v>5135</v>
+        <v>77550</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3840,47 +3840,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>105930</v>
+        <v>185</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>628016.3600143436</v>
+        <v>628030.2196984198</v>
       </c>
       <c r="R29" t="n">
-        <v>6944480.738271755</v>
+        <v>6943835.983260213</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3931,7 +3923,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3950,10 +3941,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111667287</v>
+        <v>111668109</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>5135</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3962,39 +3953,47 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>105930</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>628191.351562822</v>
+        <v>628016.3600143436</v>
       </c>
       <c r="R30" t="n">
-        <v>6944014.155575473</v>
+        <v>6944480.738271755</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4045,6 +4044,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4063,10 +4063,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111667231</v>
+        <v>111667877</v>
       </c>
       <c r="B31" t="n">
-        <v>77550</v>
+        <v>56543</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4079,35 +4079,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>185</v>
+        <v>103021</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>628160.9420623753</v>
+        <v>628073.1002953692</v>
       </c>
       <c r="R31" t="n">
-        <v>6944048.470567195</v>
+        <v>6944660.366756786</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4176,10 +4176,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111666918</v>
+        <v>111667287</v>
       </c>
       <c r="B32" t="n">
-        <v>77550</v>
+        <v>78578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4192,35 +4192,35 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>627981.5521892406</v>
+        <v>628191.351562822</v>
       </c>
       <c r="R32" t="n">
-        <v>6943733.609182604</v>
+        <v>6944014.155575473</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111668313</v>
+        <v>111667778</v>
       </c>
       <c r="B33" t="n">
-        <v>56543</v>
+        <v>77550</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4305,21 +4305,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>103021</v>
+        <v>185</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4330,10 +4330,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>627869.5672010599</v>
+        <v>628041.295580395</v>
       </c>
       <c r="R33" t="n">
-        <v>6944134.919311633</v>
+        <v>6944396.900308819</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111668169</v>
+        <v>111667725</v>
       </c>
       <c r="B34" t="n">
-        <v>89405</v>
+        <v>77550</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4418,21 +4418,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4443,10 +4443,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>627989.210128115</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R34" t="n">
-        <v>6944335.430490699</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111667725</v>
+        <v>111667773</v>
       </c>
       <c r="B35" t="n">
-        <v>77550</v>
+        <v>89790</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4531,35 +4531,32 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>185</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Violettgrå tagellav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>628005.9220808987</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R35" t="n">
-        <v>6944356.817101943</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4610,6 +4607,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4628,10 +4626,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111667281</v>
+        <v>111667731</v>
       </c>
       <c r="B36" t="n">
-        <v>85715</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4644,35 +4642,35 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>628196.0116143352</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R36" t="n">
-        <v>6944024.937745438</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4741,10 +4739,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111667773</v>
+        <v>111667927</v>
       </c>
       <c r="B37" t="n">
-        <v>89790</v>
+        <v>77550</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4757,32 +4755,35 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6040186</v>
+        <v>185</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>628028.5695976926</v>
+        <v>628070.1241137966</v>
       </c>
       <c r="R37" t="n">
-        <v>6944391.799111729</v>
+        <v>6944749.195084839</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4833,7 +4834,6 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111667338</v>
+        <v>111667281</v>
       </c>
       <c r="B38" t="n">
-        <v>89425</v>
+        <v>85715</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4868,21 +4868,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5442</v>
+        <v>510</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>628206.6965146795</v>
+        <v>628196.0116143352</v>
       </c>
       <c r="R38" t="n">
-        <v>6944047.015808343</v>
+        <v>6944024.937745438</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2248,10 +2248,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111668301</v>
+        <v>111668169</v>
       </c>
       <c r="B15" t="n">
-        <v>77550</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2264,21 +2264,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>627869.5672010599</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R15" t="n">
-        <v>6944134.919311633</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111667763</v>
+        <v>111667287</v>
       </c>
       <c r="B16" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2373,39 +2373,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>628028.5695976926</v>
+        <v>628191.351562822</v>
       </c>
       <c r="R16" t="n">
-        <v>6944391.799111729</v>
+        <v>6944014.155575473</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111668160</v>
+        <v>111668569</v>
       </c>
       <c r="B18" t="n">
-        <v>89790</v>
+        <v>77550</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2603,32 +2603,35 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6040186</v>
+        <v>185</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>627989.210128115</v>
+        <v>627931.2258218131</v>
       </c>
       <c r="R18" t="n">
-        <v>6944335.430490699</v>
+        <v>6943686.026669092</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2679,7 +2682,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2698,7 +2700,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111668569</v>
+        <v>111667977</v>
       </c>
       <c r="B19" t="n">
         <v>77550</v>
@@ -2735,14 +2737,14 @@
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>627931.2258218131</v>
+        <v>628025.0361159063</v>
       </c>
       <c r="R19" t="n">
-        <v>6943686.026669092</v>
+        <v>6944745.60709906</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2811,10 +2813,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111668169</v>
+        <v>111667778</v>
       </c>
       <c r="B20" t="n">
-        <v>89405</v>
+        <v>77550</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2827,21 +2829,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2852,10 +2854,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>627989.210128115</v>
+        <v>628041.295580395</v>
       </c>
       <c r="R20" t="n">
-        <v>6944335.430490699</v>
+        <v>6944396.900308819</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2924,10 +2926,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111667427</v>
+        <v>111668313</v>
       </c>
       <c r="B21" t="n">
-        <v>77550</v>
+        <v>56543</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2940,35 +2942,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>628238.2251299906</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R21" t="n">
-        <v>6944162.548277185</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3037,10 +3039,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111667471</v>
+        <v>111667773</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>89790</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3053,35 +3055,32 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Garnlav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>628242.7901880945</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R22" t="n">
-        <v>6944199.598880037</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3132,6 +3131,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111668313</v>
+        <v>111667471</v>
       </c>
       <c r="B23" t="n">
-        <v>56543</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3166,21 +3166,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3191,10 +3191,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>627869.5672010599</v>
+        <v>628242.7901880945</v>
       </c>
       <c r="R23" t="n">
-        <v>6944134.919311633</v>
+        <v>6944199.598880037</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111667231</v>
+        <v>111667927</v>
       </c>
       <c r="B24" t="n">
         <v>77550</v>
@@ -3300,14 +3300,14 @@
       <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>628160.9420623753</v>
+        <v>628070.1241137966</v>
       </c>
       <c r="R24" t="n">
-        <v>6944048.470567195</v>
+        <v>6944749.195084839</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111666918</v>
+        <v>111667081</v>
       </c>
       <c r="B25" t="n">
         <v>77550</v>
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>627981.5521892406</v>
+        <v>628030.2196984198</v>
       </c>
       <c r="R25" t="n">
-        <v>6943733.609182604</v>
+        <v>6943835.983260213</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3489,10 +3489,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111667041</v>
+        <v>111668160</v>
       </c>
       <c r="B26" t="n">
-        <v>77550</v>
+        <v>89790</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3505,35 +3505,32 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>185</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Violettgrå tagellav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>627994.5336875709</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R26" t="n">
-        <v>6943827.688791481</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3584,6 +3581,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3602,10 +3600,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111667977</v>
+        <v>111668109</v>
       </c>
       <c r="B27" t="n">
-        <v>77550</v>
+        <v>5135</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3614,39 +3612,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>185</v>
+        <v>105930</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>628025.0361159063</v>
+        <v>628016.3600143436</v>
       </c>
       <c r="R27" t="n">
-        <v>6944745.60709906</v>
+        <v>6944480.738271755</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3697,6 +3703,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3715,10 +3722,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111667338</v>
+        <v>111667427</v>
       </c>
       <c r="B28" t="n">
-        <v>89425</v>
+        <v>77550</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3731,21 +3738,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5442</v>
+        <v>185</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3756,10 +3763,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>628206.6965146795</v>
+        <v>628238.2251299906</v>
       </c>
       <c r="R28" t="n">
-        <v>6944047.015808343</v>
+        <v>6944162.548277185</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3828,7 +3835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111667081</v>
+        <v>111667041</v>
       </c>
       <c r="B29" t="n">
         <v>77550</v>
@@ -3869,10 +3876,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>628030.2196984198</v>
+        <v>627994.5336875709</v>
       </c>
       <c r="R29" t="n">
-        <v>6943835.983260213</v>
+        <v>6943827.688791481</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3941,10 +3948,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111668109</v>
+        <v>111667338</v>
       </c>
       <c r="B30" t="n">
-        <v>5135</v>
+        <v>89425</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3953,47 +3960,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>105930</v>
+        <v>5442</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>628016.3600143436</v>
+        <v>628206.6965146795</v>
       </c>
       <c r="R30" t="n">
-        <v>6944480.738271755</v>
+        <v>6944047.015808343</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4044,7 +4043,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4063,10 +4061,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111667877</v>
+        <v>111667281</v>
       </c>
       <c r="B31" t="n">
-        <v>56543</v>
+        <v>85715</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4079,35 +4077,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>103021</v>
+        <v>510</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>628073.1002953692</v>
+        <v>628196.0116143352</v>
       </c>
       <c r="R31" t="n">
-        <v>6944660.366756786</v>
+        <v>6944024.937745438</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4176,10 +4174,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111667287</v>
+        <v>111667725</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4192,35 +4190,35 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>628191.351562822</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R32" t="n">
-        <v>6944014.155575473</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4289,10 +4287,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111667778</v>
+        <v>111667763</v>
       </c>
       <c r="B33" t="n">
-        <v>77550</v>
+        <v>89845</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4301,25 +4299,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>185</v>
+        <v>1209</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4330,10 +4328,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>628041.295580395</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R33" t="n">
-        <v>6944396.900308819</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4402,7 +4400,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111667725</v>
+        <v>111668301</v>
       </c>
       <c r="B34" t="n">
         <v>77550</v>
@@ -4443,10 +4441,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>628005.9220808987</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R34" t="n">
-        <v>6944356.817101943</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4515,10 +4513,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111667773</v>
+        <v>111667877</v>
       </c>
       <c r="B35" t="n">
-        <v>89790</v>
+        <v>56543</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4531,32 +4529,35 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6040186</v>
+        <v>103021</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>628028.5695976926</v>
+        <v>628073.1002953692</v>
       </c>
       <c r="R35" t="n">
-        <v>6944391.799111729</v>
+        <v>6944660.366756786</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4607,7 +4608,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4626,10 +4626,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111667731</v>
+        <v>111667231</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4642,35 +4642,35 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>628005.9220808987</v>
+        <v>628160.9420623753</v>
       </c>
       <c r="R36" t="n">
-        <v>6944356.817101943</v>
+        <v>6944048.470567195</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4739,10 +4739,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111667927</v>
+        <v>111667731</v>
       </c>
       <c r="B37" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4755,21 +4755,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>628070.1241137966</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R37" t="n">
-        <v>6944749.195084839</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111667281</v>
+        <v>111666918</v>
       </c>
       <c r="B38" t="n">
-        <v>85715</v>
+        <v>77550</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4868,35 +4868,35 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>510</v>
+        <v>185</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>628196.0116143352</v>
+        <v>627981.5521892406</v>
       </c>
       <c r="R38" t="n">
-        <v>6944024.937745438</v>
+        <v>6943733.609182604</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2248,10 +2248,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111668169</v>
+        <v>111668313</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2264,21 +2264,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>627989.210128115</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R15" t="n">
-        <v>6944335.430490699</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111667287</v>
+        <v>111667778</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2377,35 +2377,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>628191.351562822</v>
+        <v>628041.295580395</v>
       </c>
       <c r="R16" t="n">
-        <v>6944014.155575473</v>
+        <v>6944396.900308819</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111668151</v>
+        <v>111667725</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2490,21 +2490,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>627992.8558976713</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R17" t="n">
-        <v>6944372.443055111</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111668569</v>
+        <v>111667287</v>
       </c>
       <c r="B18" t="n">
-        <v>77550</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2603,35 +2603,35 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>627931.2258218131</v>
+        <v>628191.351562822</v>
       </c>
       <c r="R18" t="n">
-        <v>6943686.026669092</v>
+        <v>6944014.155575473</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111667977</v>
+        <v>111667877</v>
       </c>
       <c r="B19" t="n">
-        <v>77550</v>
+        <v>56543</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,21 +2716,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>185</v>
+        <v>103021</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>628025.0361159063</v>
+        <v>628073.1002953692</v>
       </c>
       <c r="R19" t="n">
-        <v>6944745.60709906</v>
+        <v>6944660.366756786</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111667778</v>
+        <v>111667231</v>
       </c>
       <c r="B20" t="n">
         <v>77550</v>
@@ -2850,14 +2850,14 @@
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>628041.295580395</v>
+        <v>628160.9420623753</v>
       </c>
       <c r="R20" t="n">
-        <v>6944396.900308819</v>
+        <v>6944048.470567195</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111668313</v>
+        <v>111667773</v>
       </c>
       <c r="B21" t="n">
-        <v>56543</v>
+        <v>89790</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2942,35 +2942,32 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>627869.5672010599</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R21" t="n">
-        <v>6944134.919311633</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3021,6 +3018,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3039,10 +3037,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111667773</v>
+        <v>111667763</v>
       </c>
       <c r="B22" t="n">
-        <v>89790</v>
+        <v>89845</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3051,26 +3049,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6040186</v>
+        <v>1209</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
@@ -3131,7 +3132,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111667471</v>
+        <v>111667281</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>85715</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3166,35 +3166,35 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>628242.7901880945</v>
+        <v>628196.0116143352</v>
       </c>
       <c r="R23" t="n">
-        <v>6944199.598880037</v>
+        <v>6944024.937745438</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3263,10 +3263,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111667927</v>
+        <v>111668160</v>
       </c>
       <c r="B24" t="n">
-        <v>77550</v>
+        <v>89790</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3279,35 +3279,32 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>185</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Violettgrå tagellav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>628070.1241137966</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R24" t="n">
-        <v>6944749.195084839</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3358,6 +3355,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3376,10 +3374,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111667081</v>
+        <v>111667338</v>
       </c>
       <c r="B25" t="n">
-        <v>77550</v>
+        <v>89425</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3392,35 +3390,35 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>185</v>
+        <v>5442</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>628030.2196984198</v>
+        <v>628206.6965146795</v>
       </c>
       <c r="R25" t="n">
-        <v>6943835.983260213</v>
+        <v>6944047.015808343</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3489,10 +3487,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111668160</v>
+        <v>111667471</v>
       </c>
       <c r="B26" t="n">
-        <v>89790</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3505,32 +3503,35 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6040186</v>
+        <v>6425</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>627989.210128115</v>
+        <v>628242.7901880945</v>
       </c>
       <c r="R26" t="n">
-        <v>6944335.430490699</v>
+        <v>6944199.598880037</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3581,7 +3582,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111668109</v>
+        <v>111667731</v>
       </c>
       <c r="B27" t="n">
-        <v>5135</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3612,47 +3612,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>105930</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>628016.3600143436</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R27" t="n">
-        <v>6944480.738271755</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3703,7 +3695,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3722,7 +3713,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111667427</v>
+        <v>111668569</v>
       </c>
       <c r="B28" t="n">
         <v>77550</v>
@@ -3759,14 +3750,14 @@
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>628238.2251299906</v>
+        <v>627931.2258218131</v>
       </c>
       <c r="R28" t="n">
-        <v>6944162.548277185</v>
+        <v>6943686.026669092</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3948,10 +3939,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111667338</v>
+        <v>111668301</v>
       </c>
       <c r="B30" t="n">
-        <v>89425</v>
+        <v>77550</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3964,35 +3955,35 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5442</v>
+        <v>185</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>628206.6965146795</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R30" t="n">
-        <v>6944047.015808343</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4061,10 +4052,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111667281</v>
+        <v>111667081</v>
       </c>
       <c r="B31" t="n">
-        <v>85715</v>
+        <v>77550</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4077,35 +4068,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>510</v>
+        <v>185</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>628196.0116143352</v>
+        <v>628030.2196984198</v>
       </c>
       <c r="R31" t="n">
-        <v>6944024.937745438</v>
+        <v>6943835.983260213</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4174,7 +4165,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111667725</v>
+        <v>111667977</v>
       </c>
       <c r="B32" t="n">
         <v>77550</v>
@@ -4215,10 +4206,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>628005.9220808987</v>
+        <v>628025.0361159063</v>
       </c>
       <c r="R32" t="n">
-        <v>6944356.817101943</v>
+        <v>6944745.60709906</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4287,10 +4278,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111667763</v>
+        <v>111668151</v>
       </c>
       <c r="B33" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4299,25 +4290,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4328,10 +4319,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>628028.5695976926</v>
+        <v>627992.8558976713</v>
       </c>
       <c r="R33" t="n">
-        <v>6944391.799111729</v>
+        <v>6944372.443055111</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4400,10 +4391,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111668301</v>
+        <v>111668109</v>
       </c>
       <c r="B34" t="n">
-        <v>77550</v>
+        <v>5135</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4412,39 +4403,47 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>185</v>
+        <v>105930</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>627869.5672010599</v>
+        <v>628016.3600143436</v>
       </c>
       <c r="R34" t="n">
-        <v>6944134.919311633</v>
+        <v>6944480.738271755</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4495,6 +4494,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4513,10 +4513,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111667877</v>
+        <v>111666918</v>
       </c>
       <c r="B35" t="n">
-        <v>56543</v>
+        <v>77550</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4529,35 +4529,35 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>103021</v>
+        <v>185</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>628073.1002953692</v>
+        <v>627981.5521892406</v>
       </c>
       <c r="R35" t="n">
-        <v>6944660.366756786</v>
+        <v>6943733.609182604</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111667231</v>
+        <v>111667927</v>
       </c>
       <c r="B36" t="n">
         <v>77550</v>
@@ -4663,14 +4663,14 @@
       <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>628160.9420623753</v>
+        <v>628070.1241137966</v>
       </c>
       <c r="R36" t="n">
-        <v>6944048.470567195</v>
+        <v>6944749.195084839</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4739,10 +4739,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111667731</v>
+        <v>111667427</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4755,35 +4755,35 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>628005.9220808987</v>
+        <v>628238.2251299906</v>
       </c>
       <c r="R37" t="n">
-        <v>6944356.817101943</v>
+        <v>6944162.548277185</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111666918</v>
+        <v>111668169</v>
       </c>
       <c r="B38" t="n">
-        <v>77550</v>
+        <v>89405</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4868,35 +4868,35 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>627981.5521892406</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R38" t="n">
-        <v>6943733.609182604</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2813,10 +2813,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111667231</v>
+        <v>111667773</v>
       </c>
       <c r="B20" t="n">
-        <v>77550</v>
+        <v>89790</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,35 +2829,32 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>185</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Violettgrå tagellav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>628160.9420623753</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R20" t="n">
-        <v>6944048.470567195</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2908,6 +2905,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2926,10 +2924,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111667773</v>
+        <v>111667231</v>
       </c>
       <c r="B21" t="n">
-        <v>89790</v>
+        <v>77550</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2942,32 +2940,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6040186</v>
+        <v>185</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>628028.5695976926</v>
+        <v>628160.9420623753</v>
       </c>
       <c r="R21" t="n">
-        <v>6944391.799111729</v>
+        <v>6944048.470567195</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3018,7 +3019,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2248,10 +2248,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111668313</v>
+        <v>111667773</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>89790</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2264,35 +2264,32 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>627869.5672010599</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R15" t="n">
-        <v>6944134.919311633</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2343,6 +2340,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2361,10 +2359,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111667778</v>
+        <v>111667338</v>
       </c>
       <c r="B16" t="n">
-        <v>77550</v>
+        <v>89425</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2377,35 +2375,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>5442</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>628041.295580395</v>
+        <v>628206.6965146795</v>
       </c>
       <c r="R16" t="n">
-        <v>6944396.900308819</v>
+        <v>6944047.015808343</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2474,7 +2472,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111667725</v>
+        <v>111667041</v>
       </c>
       <c r="B17" t="n">
         <v>77550</v>
@@ -2511,14 +2509,14 @@
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>628005.9220808987</v>
+        <v>627994.5336875709</v>
       </c>
       <c r="R17" t="n">
-        <v>6944356.817101943</v>
+        <v>6943827.688791481</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2587,10 +2585,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111667287</v>
+        <v>111667763</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2599,39 +2597,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>628191.351562822</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R18" t="n">
-        <v>6944014.155575473</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2700,10 +2698,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111667877</v>
+        <v>111666918</v>
       </c>
       <c r="B19" t="n">
-        <v>56543</v>
+        <v>77550</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,35 +2714,35 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103021</v>
+        <v>185</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>628073.1002953692</v>
+        <v>627981.5521892406</v>
       </c>
       <c r="R19" t="n">
-        <v>6944660.366756786</v>
+        <v>6943733.609182604</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2813,10 +2811,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111667773</v>
+        <v>111667287</v>
       </c>
       <c r="B20" t="n">
-        <v>89790</v>
+        <v>78578</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,32 +2827,35 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6040186</v>
+        <v>6458</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>628028.5695976926</v>
+        <v>628191.351562822</v>
       </c>
       <c r="R20" t="n">
-        <v>6944391.799111729</v>
+        <v>6944014.155575473</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2905,7 +2906,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111667231</v>
+        <v>111668151</v>
       </c>
       <c r="B21" t="n">
-        <v>77550</v>
+        <v>78578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2940,35 +2940,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>628160.9420623753</v>
+        <v>627992.8558976713</v>
       </c>
       <c r="R21" t="n">
-        <v>6944048.470567195</v>
+        <v>6944372.443055111</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111667763</v>
+        <v>111668301</v>
       </c>
       <c r="B22" t="n">
-        <v>89845</v>
+        <v>77550</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3049,25 +3049,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1209</v>
+        <v>185</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>628028.5695976926</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R22" t="n">
-        <v>6944391.799111729</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111667281</v>
+        <v>111668569</v>
       </c>
       <c r="B23" t="n">
-        <v>85715</v>
+        <v>77550</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3166,35 +3166,35 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>510</v>
+        <v>185</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>628196.0116143352</v>
+        <v>627931.2258218131</v>
       </c>
       <c r="R23" t="n">
-        <v>6944024.937745438</v>
+        <v>6943686.026669092</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111667338</v>
+        <v>111668313</v>
       </c>
       <c r="B25" t="n">
-        <v>89425</v>
+        <v>56543</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3390,35 +3390,35 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5442</v>
+        <v>103021</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>628206.6965146795</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R25" t="n">
-        <v>6944047.015808343</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111667471</v>
+        <v>111667281</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>85715</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3503,35 +3503,35 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>628242.7901880945</v>
+        <v>628196.0116143352</v>
       </c>
       <c r="R26" t="n">
-        <v>6944199.598880037</v>
+        <v>6944024.937745438</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111667731</v>
+        <v>111667927</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3616,21 +3616,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>628005.9220808987</v>
+        <v>628070.1241137966</v>
       </c>
       <c r="R27" t="n">
-        <v>6944356.817101943</v>
+        <v>6944749.195084839</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3713,10 +3713,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111668569</v>
+        <v>111667731</v>
       </c>
       <c r="B28" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3729,35 +3729,35 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>627931.2258218131</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R28" t="n">
-        <v>6943686.026669092</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111667041</v>
+        <v>111667725</v>
       </c>
       <c r="B29" t="n">
         <v>77550</v>
@@ -3863,14 +3863,14 @@
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>627994.5336875709</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R29" t="n">
-        <v>6943827.688791481</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111668301</v>
+        <v>111668169</v>
       </c>
       <c r="B30" t="n">
-        <v>77550</v>
+        <v>89405</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3955,21 +3955,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3980,10 +3980,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>627869.5672010599</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R30" t="n">
-        <v>6944134.919311633</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111667081</v>
+        <v>111667427</v>
       </c>
       <c r="B31" t="n">
         <v>77550</v>
@@ -4089,14 +4089,14 @@
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>628030.2196984198</v>
+        <v>628238.2251299906</v>
       </c>
       <c r="R31" t="n">
-        <v>6943835.983260213</v>
+        <v>6944162.548277185</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4165,10 +4165,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111667977</v>
+        <v>111667877</v>
       </c>
       <c r="B32" t="n">
-        <v>77550</v>
+        <v>56543</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4181,21 +4181,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>185</v>
+        <v>103021</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>628025.0361159063</v>
+        <v>628073.1002953692</v>
       </c>
       <c r="R32" t="n">
-        <v>6944745.60709906</v>
+        <v>6944660.366756786</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4278,10 +4278,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111668151</v>
+        <v>111667778</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4294,21 +4294,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4319,10 +4319,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>627992.8558976713</v>
+        <v>628041.295580395</v>
       </c>
       <c r="R33" t="n">
-        <v>6944372.443055111</v>
+        <v>6944396.900308819</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111668109</v>
+        <v>111667231</v>
       </c>
       <c r="B34" t="n">
-        <v>5135</v>
+        <v>77550</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4403,47 +4403,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>105930</v>
+        <v>185</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>628016.3600143436</v>
+        <v>628160.9420623753</v>
       </c>
       <c r="R34" t="n">
-        <v>6944480.738271755</v>
+        <v>6944048.470567195</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4494,7 +4486,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4513,10 +4504,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111666918</v>
+        <v>111667471</v>
       </c>
       <c r="B35" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4529,35 +4520,35 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>627981.5521892406</v>
+        <v>628242.7901880945</v>
       </c>
       <c r="R35" t="n">
-        <v>6943733.609182604</v>
+        <v>6944199.598880037</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4626,7 +4617,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111667927</v>
+        <v>111667081</v>
       </c>
       <c r="B36" t="n">
         <v>77550</v>
@@ -4663,14 +4654,14 @@
       <c r="K36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>628070.1241137966</v>
+        <v>628030.2196984198</v>
       </c>
       <c r="R36" t="n">
-        <v>6944749.195084839</v>
+        <v>6943835.983260213</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4739,10 +4730,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111667427</v>
+        <v>111668109</v>
       </c>
       <c r="B37" t="n">
-        <v>77550</v>
+        <v>5135</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4751,39 +4742,47 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>185</v>
+        <v>105930</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>628238.2251299906</v>
+        <v>628016.3600143436</v>
       </c>
       <c r="R37" t="n">
-        <v>6944162.548277185</v>
+        <v>6944480.738271755</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4834,6 +4833,7 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111668169</v>
+        <v>111667977</v>
       </c>
       <c r="B38" t="n">
-        <v>89405</v>
+        <v>77550</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4868,21 +4868,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>627989.210128115</v>
+        <v>628025.0361159063</v>
       </c>
       <c r="R38" t="n">
-        <v>6944335.430490699</v>
+        <v>6944745.60709906</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2359,10 +2359,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111667338</v>
+        <v>111667778</v>
       </c>
       <c r="B16" t="n">
-        <v>89425</v>
+        <v>77550</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2375,35 +2375,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5442</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>628206.6965146795</v>
+        <v>628041.295580395</v>
       </c>
       <c r="R16" t="n">
-        <v>6944047.015808343</v>
+        <v>6944396.900308819</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2472,10 +2472,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111667041</v>
+        <v>111667338</v>
       </c>
       <c r="B17" t="n">
-        <v>77550</v>
+        <v>89425</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2488,35 +2488,35 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>5442</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>627994.5336875709</v>
+        <v>628206.6965146795</v>
       </c>
       <c r="R17" t="n">
-        <v>6943827.688791481</v>
+        <v>6944047.015808343</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111667763</v>
+        <v>111668569</v>
       </c>
       <c r="B18" t="n">
-        <v>89845</v>
+        <v>77550</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2597,39 +2597,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1209</v>
+        <v>185</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>628028.5695976926</v>
+        <v>627931.2258218131</v>
       </c>
       <c r="R18" t="n">
-        <v>6944391.799111729</v>
+        <v>6943686.026669092</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2698,10 +2698,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111666918</v>
+        <v>111667763</v>
       </c>
       <c r="B19" t="n">
-        <v>77550</v>
+        <v>89845</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2710,39 +2710,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>185</v>
+        <v>1209</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>627981.5521892406</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R19" t="n">
-        <v>6943733.609182604</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111667287</v>
+        <v>111667041</v>
       </c>
       <c r="B20" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2827,35 +2827,35 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>628191.351562822</v>
+        <v>627994.5336875709</v>
       </c>
       <c r="R20" t="n">
-        <v>6944014.155575473</v>
+        <v>6943827.688791481</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2924,10 +2924,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111668151</v>
+        <v>111667725</v>
       </c>
       <c r="B21" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2940,21 +2940,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2965,10 +2965,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>627992.8558976713</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R21" t="n">
-        <v>6944372.443055111</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111668301</v>
+        <v>111667287</v>
       </c>
       <c r="B22" t="n">
-        <v>77550</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3053,35 +3053,35 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>627869.5672010599</v>
+        <v>628191.351562822</v>
       </c>
       <c r="R22" t="n">
-        <v>6944134.919311633</v>
+        <v>6944014.155575473</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111668569</v>
+        <v>111668169</v>
       </c>
       <c r="B23" t="n">
-        <v>77550</v>
+        <v>89405</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3166,35 +3166,35 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>627931.2258218131</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R23" t="n">
-        <v>6943686.026669092</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3263,10 +3263,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111668160</v>
+        <v>111667877</v>
       </c>
       <c r="B24" t="n">
-        <v>89790</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3279,32 +3279,35 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6040186</v>
+        <v>103021</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>627989.210128115</v>
+        <v>628073.1002953692</v>
       </c>
       <c r="R24" t="n">
-        <v>6944335.430490699</v>
+        <v>6944660.366756786</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3355,7 +3358,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3374,10 +3376,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111668313</v>
+        <v>111666918</v>
       </c>
       <c r="B25" t="n">
-        <v>56543</v>
+        <v>77550</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3390,35 +3392,35 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>103021</v>
+        <v>185</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>627869.5672010599</v>
+        <v>627981.5521892406</v>
       </c>
       <c r="R25" t="n">
-        <v>6944134.919311633</v>
+        <v>6943733.609182604</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3487,10 +3489,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111667281</v>
+        <v>111668313</v>
       </c>
       <c r="B26" t="n">
-        <v>85715</v>
+        <v>56543</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3503,35 +3505,35 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>510</v>
+        <v>103021</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>628196.0116143352</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R26" t="n">
-        <v>6944024.937745438</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3600,10 +3602,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111667927</v>
+        <v>111667471</v>
       </c>
       <c r="B27" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3616,21 +3618,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3641,10 +3643,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>628070.1241137966</v>
+        <v>628242.7901880945</v>
       </c>
       <c r="R27" t="n">
-        <v>6944749.195084839</v>
+        <v>6944199.598880037</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3826,10 +3828,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111667725</v>
+        <v>111667281</v>
       </c>
       <c r="B29" t="n">
-        <v>77550</v>
+        <v>85715</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3842,35 +3844,35 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>185</v>
+        <v>510</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>628005.9220808987</v>
+        <v>628196.0116143352</v>
       </c>
       <c r="R29" t="n">
-        <v>6944356.817101943</v>
+        <v>6944024.937745438</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3939,10 +3941,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111668169</v>
+        <v>111667231</v>
       </c>
       <c r="B30" t="n">
-        <v>89405</v>
+        <v>77550</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3955,35 +3957,35 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>627989.210128115</v>
+        <v>628160.9420623753</v>
       </c>
       <c r="R30" t="n">
-        <v>6944335.430490699</v>
+        <v>6944048.470567195</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4052,7 +4054,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111667427</v>
+        <v>111667927</v>
       </c>
       <c r="B31" t="n">
         <v>77550</v>
@@ -4089,14 +4091,14 @@
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>628238.2251299906</v>
+        <v>628070.1241137966</v>
       </c>
       <c r="R31" t="n">
-        <v>6944162.548277185</v>
+        <v>6944749.195084839</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4165,10 +4167,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111667877</v>
+        <v>111668301</v>
       </c>
       <c r="B32" t="n">
-        <v>56543</v>
+        <v>77550</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4181,21 +4183,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>103021</v>
+        <v>185</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4206,10 +4208,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>628073.1002953692</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R32" t="n">
-        <v>6944660.366756786</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4278,7 +4280,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111667778</v>
+        <v>111667081</v>
       </c>
       <c r="B33" t="n">
         <v>77550</v>
@@ -4315,14 +4317,14 @@
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>628041.295580395</v>
+        <v>628030.2196984198</v>
       </c>
       <c r="R33" t="n">
-        <v>6944396.900308819</v>
+        <v>6943835.983260213</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4391,10 +4393,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111667231</v>
+        <v>111668109</v>
       </c>
       <c r="B34" t="n">
-        <v>77550</v>
+        <v>5135</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4403,39 +4405,47 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>185</v>
+        <v>105930</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>628160.9420623753</v>
+        <v>628016.3600143436</v>
       </c>
       <c r="R34" t="n">
-        <v>6944048.470567195</v>
+        <v>6944480.738271755</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4486,6 +4496,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4504,10 +4515,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111667471</v>
+        <v>111668151</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4520,21 +4531,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4545,10 +4556,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>628242.7901880945</v>
+        <v>627992.8558976713</v>
       </c>
       <c r="R35" t="n">
-        <v>6944199.598880037</v>
+        <v>6944372.443055111</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4617,10 +4628,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111667081</v>
+        <v>111668160</v>
       </c>
       <c r="B36" t="n">
-        <v>77550</v>
+        <v>89790</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4633,35 +4644,32 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>185</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Violettgrå tagellav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>628030.2196984198</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R36" t="n">
-        <v>6943835.983260213</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4712,6 +4720,7 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4730,10 +4739,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111668109</v>
+        <v>111667977</v>
       </c>
       <c r="B37" t="n">
-        <v>5135</v>
+        <v>77550</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4742,47 +4751,39 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>105930</v>
+        <v>185</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>628016.3600143436</v>
+        <v>628025.0361159063</v>
       </c>
       <c r="R37" t="n">
-        <v>6944480.738271755</v>
+        <v>6944745.60709906</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4833,7 +4834,6 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111667977</v>
+        <v>111667427</v>
       </c>
       <c r="B38" t="n">
         <v>77550</v>
@@ -4889,14 +4889,14 @@
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>628025.0361159063</v>
+        <v>628238.2251299906</v>
       </c>
       <c r="R38" t="n">
-        <v>6944745.60709906</v>
+        <v>6944162.548277185</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2811,7 +2811,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111667041</v>
+        <v>111667725</v>
       </c>
       <c r="B20" t="n">
         <v>77550</v>
@@ -2848,14 +2848,14 @@
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>627994.5336875709</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R20" t="n">
-        <v>6943827.688791481</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111667725</v>
+        <v>111667041</v>
       </c>
       <c r="B21" t="n">
         <v>77550</v>
@@ -2961,14 +2961,14 @@
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>628005.9220808987</v>
+        <v>627994.5336875709</v>
       </c>
       <c r="R21" t="n">
-        <v>6944356.817101943</v>
+        <v>6943827.688791481</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111667081</v>
+        <v>111668109</v>
       </c>
       <c r="B33" t="n">
-        <v>77550</v>
+        <v>5135</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4292,39 +4292,47 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>185</v>
+        <v>105930</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>628030.2196984198</v>
+        <v>628016.3600143436</v>
       </c>
       <c r="R33" t="n">
-        <v>6943835.983260213</v>
+        <v>6944480.738271755</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4375,6 +4383,7 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4393,10 +4402,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111668109</v>
+        <v>111667081</v>
       </c>
       <c r="B34" t="n">
-        <v>5135</v>
+        <v>77550</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4405,47 +4414,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>105930</v>
+        <v>185</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>628016.3600143436</v>
+        <v>628030.2196984198</v>
       </c>
       <c r="R34" t="n">
-        <v>6944480.738271755</v>
+        <v>6943835.983260213</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4496,7 +4497,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2359,10 +2359,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111667778</v>
+        <v>111668160</v>
       </c>
       <c r="B16" t="n">
-        <v>77550</v>
+        <v>89790</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2375,35 +2375,32 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Violettgrå tagellav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>628041.295580395</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R16" t="n">
-        <v>6944396.900308819</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2454,6 +2451,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2472,10 +2470,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111667338</v>
+        <v>111666918</v>
       </c>
       <c r="B17" t="n">
-        <v>89425</v>
+        <v>77550</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2488,35 +2486,35 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5442</v>
+        <v>185</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>628206.6965146795</v>
+        <v>627981.5521892406</v>
       </c>
       <c r="R17" t="n">
-        <v>6944047.015808343</v>
+        <v>6943733.609182604</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2585,7 +2583,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111668569</v>
+        <v>111667041</v>
       </c>
       <c r="B18" t="n">
         <v>77550</v>
@@ -2626,10 +2624,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>627931.2258218131</v>
+        <v>627994.5336875709</v>
       </c>
       <c r="R18" t="n">
-        <v>6943686.026669092</v>
+        <v>6943827.688791481</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2698,10 +2696,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111667763</v>
+        <v>111667338</v>
       </c>
       <c r="B19" t="n">
-        <v>89845</v>
+        <v>89425</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2710,39 +2708,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1209</v>
+        <v>5442</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>628028.5695976926</v>
+        <v>628206.6965146795</v>
       </c>
       <c r="R19" t="n">
-        <v>6944391.799111729</v>
+        <v>6944047.015808343</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2811,10 +2809,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111667725</v>
+        <v>111667877</v>
       </c>
       <c r="B20" t="n">
-        <v>77550</v>
+        <v>56543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2827,21 +2825,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>185</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2852,10 +2850,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>628005.9220808987</v>
+        <v>628073.1002953692</v>
       </c>
       <c r="R20" t="n">
-        <v>6944356.817101943</v>
+        <v>6944660.366756786</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2924,10 +2922,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111667041</v>
+        <v>111667281</v>
       </c>
       <c r="B21" t="n">
-        <v>77550</v>
+        <v>85715</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2940,35 +2938,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>510</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>627994.5336875709</v>
+        <v>628196.0116143352</v>
       </c>
       <c r="R21" t="n">
-        <v>6943827.688791481</v>
+        <v>6944024.937745438</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3037,10 +3035,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111667287</v>
+        <v>111668109</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>5135</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3049,39 +3047,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>105930</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>628191.351562822</v>
+        <v>628016.3600143436</v>
       </c>
       <c r="R22" t="n">
-        <v>6944014.155575473</v>
+        <v>6944480.738271755</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3132,6 +3138,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3150,10 +3157,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111668169</v>
+        <v>111667927</v>
       </c>
       <c r="B23" t="n">
-        <v>89405</v>
+        <v>77550</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3166,21 +3173,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3191,10 +3198,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>627989.210128115</v>
+        <v>628070.1241137966</v>
       </c>
       <c r="R23" t="n">
-        <v>6944335.430490699</v>
+        <v>6944749.195084839</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3263,10 +3270,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111667877</v>
+        <v>111668301</v>
       </c>
       <c r="B24" t="n">
-        <v>56543</v>
+        <v>77550</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3279,21 +3286,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>185</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3304,10 +3311,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>628073.1002953692</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R24" t="n">
-        <v>6944660.366756786</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3376,10 +3383,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111666918</v>
+        <v>111668169</v>
       </c>
       <c r="B25" t="n">
-        <v>77550</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3392,35 +3399,35 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>627981.5521892406</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R25" t="n">
-        <v>6943733.609182604</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3602,10 +3609,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111667471</v>
+        <v>111668151</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3618,21 +3625,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3643,10 +3650,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>628242.7901880945</v>
+        <v>627992.8558976713</v>
       </c>
       <c r="R27" t="n">
-        <v>6944199.598880037</v>
+        <v>6944372.443055111</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3715,10 +3722,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111667731</v>
+        <v>111667725</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3731,21 +3738,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3828,10 +3835,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111667281</v>
+        <v>111667778</v>
       </c>
       <c r="B29" t="n">
-        <v>85715</v>
+        <v>77550</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3844,35 +3851,35 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>510</v>
+        <v>185</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>628196.0116143352</v>
+        <v>628041.295580395</v>
       </c>
       <c r="R29" t="n">
-        <v>6944024.937745438</v>
+        <v>6944396.900308819</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3941,10 +3948,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111667231</v>
+        <v>111667287</v>
       </c>
       <c r="B30" t="n">
-        <v>77550</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3957,21 +3964,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3982,10 +3989,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>628160.9420623753</v>
+        <v>628191.351562822</v>
       </c>
       <c r="R30" t="n">
-        <v>6944048.470567195</v>
+        <v>6944014.155575473</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4054,7 +4061,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111667927</v>
+        <v>111668569</v>
       </c>
       <c r="B31" t="n">
         <v>77550</v>
@@ -4091,14 +4098,14 @@
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>628070.1241137966</v>
+        <v>627931.2258218131</v>
       </c>
       <c r="R31" t="n">
-        <v>6944749.195084839</v>
+        <v>6943686.026669092</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4167,7 +4174,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111668301</v>
+        <v>111667427</v>
       </c>
       <c r="B32" t="n">
         <v>77550</v>
@@ -4204,14 +4211,14 @@
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>627869.5672010599</v>
+        <v>628238.2251299906</v>
       </c>
       <c r="R32" t="n">
-        <v>6944134.919311633</v>
+        <v>6944162.548277185</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4280,10 +4287,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111668109</v>
+        <v>111667763</v>
       </c>
       <c r="B33" t="n">
-        <v>5135</v>
+        <v>89845</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4292,47 +4299,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>105930</v>
+        <v>1209</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>628016.3600143436</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R33" t="n">
-        <v>6944480.738271755</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4383,7 +4382,6 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4402,7 +4400,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111667081</v>
+        <v>111667977</v>
       </c>
       <c r="B34" t="n">
         <v>77550</v>
@@ -4439,14 +4437,14 @@
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>628030.2196984198</v>
+        <v>628025.0361159063</v>
       </c>
       <c r="R34" t="n">
-        <v>6943835.983260213</v>
+        <v>6944745.60709906</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4515,10 +4513,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111668151</v>
+        <v>111667231</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4531,35 +4529,35 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>627992.8558976713</v>
+        <v>628160.9420623753</v>
       </c>
       <c r="R35" t="n">
-        <v>6944372.443055111</v>
+        <v>6944048.470567195</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4628,10 +4626,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111668160</v>
+        <v>111667471</v>
       </c>
       <c r="B36" t="n">
-        <v>89790</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4644,32 +4642,35 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6040186</v>
+        <v>6425</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>627989.210128115</v>
+        <v>628242.7901880945</v>
       </c>
       <c r="R36" t="n">
-        <v>6944335.430490699</v>
+        <v>6944199.598880037</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4720,7 +4721,6 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4739,10 +4739,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111667977</v>
+        <v>111667731</v>
       </c>
       <c r="B37" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4755,21 +4755,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>628025.0361159063</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R37" t="n">
-        <v>6944745.60709906</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4852,7 +4852,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111667427</v>
+        <v>111667081</v>
       </c>
       <c r="B38" t="n">
         <v>77550</v>
@@ -4889,14 +4889,14 @@
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>628238.2251299906</v>
+        <v>628030.2196984198</v>
       </c>
       <c r="R38" t="n">
-        <v>6944162.548277185</v>
+        <v>6943835.983260213</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2248,10 +2248,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111667773</v>
+        <v>111667338</v>
       </c>
       <c r="B15" t="n">
-        <v>89790</v>
+        <v>89425</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2264,32 +2264,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6040186</v>
+        <v>5442</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>628028.5695976926</v>
+        <v>628206.6965146795</v>
       </c>
       <c r="R15" t="n">
-        <v>6944391.799111729</v>
+        <v>6944047.015808343</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2340,7 +2343,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2470,7 +2472,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111666918</v>
+        <v>111667081</v>
       </c>
       <c r="B17" t="n">
         <v>77550</v>
@@ -2511,10 +2513,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>627981.5521892406</v>
+        <v>628030.2196984198</v>
       </c>
       <c r="R17" t="n">
-        <v>6943733.609182604</v>
+        <v>6943835.983260213</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2583,7 +2585,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111667041</v>
+        <v>111666918</v>
       </c>
       <c r="B18" t="n">
         <v>77550</v>
@@ -2624,10 +2626,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>627994.5336875709</v>
+        <v>627981.5521892406</v>
       </c>
       <c r="R18" t="n">
-        <v>6943827.688791481</v>
+        <v>6943733.609182604</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2696,10 +2698,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111667338</v>
+        <v>111667877</v>
       </c>
       <c r="B19" t="n">
-        <v>89425</v>
+        <v>56543</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2712,35 +2714,35 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5442</v>
+        <v>103021</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>628206.6965146795</v>
+        <v>628073.1002953692</v>
       </c>
       <c r="R19" t="n">
-        <v>6944047.015808343</v>
+        <v>6944660.366756786</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2809,10 +2811,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111667877</v>
+        <v>111667977</v>
       </c>
       <c r="B20" t="n">
-        <v>56543</v>
+        <v>77550</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2825,21 +2827,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>185</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2850,10 +2852,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>628073.1002953692</v>
+        <v>628025.0361159063</v>
       </c>
       <c r="R20" t="n">
-        <v>6944660.366756786</v>
+        <v>6944745.60709906</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2922,10 +2924,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111667281</v>
+        <v>111668301</v>
       </c>
       <c r="B21" t="n">
-        <v>85715</v>
+        <v>77550</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2938,35 +2940,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>510</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>628196.0116143352</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R21" t="n">
-        <v>6944024.937745438</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3035,10 +3037,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111668109</v>
+        <v>111668313</v>
       </c>
       <c r="B22" t="n">
-        <v>5135</v>
+        <v>56543</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3047,47 +3049,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>105930</v>
+        <v>103021</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>628016.3600143436</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R22" t="n">
-        <v>6944480.738271755</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3138,7 +3132,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3157,10 +3150,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111667927</v>
+        <v>111667731</v>
       </c>
       <c r="B23" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3173,21 +3166,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3198,10 +3191,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>628070.1241137966</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R23" t="n">
-        <v>6944749.195084839</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3270,7 +3263,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111668301</v>
+        <v>111667927</v>
       </c>
       <c r="B24" t="n">
         <v>77550</v>
@@ -3311,10 +3304,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>627869.5672010599</v>
+        <v>628070.1241137966</v>
       </c>
       <c r="R24" t="n">
-        <v>6944134.919311633</v>
+        <v>6944749.195084839</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3383,10 +3376,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111668169</v>
+        <v>111667471</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3399,21 +3392,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3424,10 +3417,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>627989.210128115</v>
+        <v>628242.7901880945</v>
       </c>
       <c r="R25" t="n">
-        <v>6944335.430490699</v>
+        <v>6944199.598880037</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3496,10 +3489,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111668313</v>
+        <v>111667041</v>
       </c>
       <c r="B26" t="n">
-        <v>56543</v>
+        <v>77550</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3512,35 +3505,35 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>103021</v>
+        <v>185</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>627869.5672010599</v>
+        <v>627994.5336875709</v>
       </c>
       <c r="R26" t="n">
-        <v>6944134.919311633</v>
+        <v>6943827.688791481</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3609,10 +3602,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111668151</v>
+        <v>111668109</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>5135</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3621,39 +3614,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>105930</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>627992.8558976713</v>
+        <v>628016.3600143436</v>
       </c>
       <c r="R27" t="n">
-        <v>6944372.443055111</v>
+        <v>6944480.738271755</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3704,6 +3705,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3722,7 +3724,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111667725</v>
+        <v>111667427</v>
       </c>
       <c r="B28" t="n">
         <v>77550</v>
@@ -3759,14 +3761,14 @@
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>628005.9220808987</v>
+        <v>628238.2251299906</v>
       </c>
       <c r="R28" t="n">
-        <v>6944356.817101943</v>
+        <v>6944162.548277185</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3835,7 +3837,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111667778</v>
+        <v>111667231</v>
       </c>
       <c r="B29" t="n">
         <v>77550</v>
@@ -3872,14 +3874,14 @@
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>628041.295580395</v>
+        <v>628160.9420623753</v>
       </c>
       <c r="R29" t="n">
-        <v>6944396.900308819</v>
+        <v>6944048.470567195</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3948,10 +3950,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111667287</v>
+        <v>111667778</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3964,35 +3966,35 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>628191.351562822</v>
+        <v>628041.295580395</v>
       </c>
       <c r="R30" t="n">
-        <v>6944014.155575473</v>
+        <v>6944396.900308819</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4061,10 +4063,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111668569</v>
+        <v>111668151</v>
       </c>
       <c r="B31" t="n">
-        <v>77550</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4077,35 +4079,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>627931.2258218131</v>
+        <v>627992.8558976713</v>
       </c>
       <c r="R31" t="n">
-        <v>6943686.026669092</v>
+        <v>6944372.443055111</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4174,10 +4176,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111667427</v>
+        <v>111667763</v>
       </c>
       <c r="B32" t="n">
-        <v>77550</v>
+        <v>89845</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4186,39 +4188,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>185</v>
+        <v>1209</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>628238.2251299906</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R32" t="n">
-        <v>6944162.548277185</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4287,10 +4289,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111667763</v>
+        <v>111667281</v>
       </c>
       <c r="B33" t="n">
-        <v>89845</v>
+        <v>85715</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4299,39 +4301,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1209</v>
+        <v>510</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>628028.5695976926</v>
+        <v>628196.0116143352</v>
       </c>
       <c r="R33" t="n">
-        <v>6944391.799111729</v>
+        <v>6944024.937745438</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4400,7 +4402,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111667977</v>
+        <v>111668569</v>
       </c>
       <c r="B34" t="n">
         <v>77550</v>
@@ -4437,14 +4439,14 @@
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>628025.0361159063</v>
+        <v>627931.2258218131</v>
       </c>
       <c r="R34" t="n">
-        <v>6944745.60709906</v>
+        <v>6943686.026669092</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4513,10 +4515,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111667231</v>
+        <v>111667773</v>
       </c>
       <c r="B35" t="n">
-        <v>77550</v>
+        <v>89790</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4529,35 +4531,32 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>185</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Violettgrå tagellav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>628160.9420623753</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R35" t="n">
-        <v>6944048.470567195</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4608,6 +4607,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4626,10 +4626,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111667471</v>
+        <v>111667725</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4642,21 +4642,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4667,10 +4667,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>628242.7901880945</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R36" t="n">
-        <v>6944199.598880037</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4739,10 +4739,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111667731</v>
+        <v>111668169</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4755,21 +4755,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>628005.9220808987</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R37" t="n">
-        <v>6944356.817101943</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111667081</v>
+        <v>111667287</v>
       </c>
       <c r="B38" t="n">
-        <v>77550</v>
+        <v>78578</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4868,35 +4868,35 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>628030.2196984198</v>
+        <v>628191.351562822</v>
       </c>
       <c r="R38" t="n">
-        <v>6943835.983260213</v>
+        <v>6944014.155575473</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2248,10 +2248,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111667338</v>
+        <v>111667471</v>
       </c>
       <c r="B15" t="n">
-        <v>89425</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2264,35 +2264,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>628206.6965146795</v>
+        <v>628242.7901880945</v>
       </c>
       <c r="R15" t="n">
-        <v>6944047.015808343</v>
+        <v>6944199.598880037</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111668160</v>
+        <v>111667427</v>
       </c>
       <c r="B16" t="n">
-        <v>89790</v>
+        <v>77550</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2377,32 +2377,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6040186</v>
+        <v>185</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>627989.210128115</v>
+        <v>628238.2251299906</v>
       </c>
       <c r="R16" t="n">
-        <v>6944335.430490699</v>
+        <v>6944162.548277185</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2453,7 +2456,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2472,7 +2474,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111667081</v>
+        <v>111667231</v>
       </c>
       <c r="B17" t="n">
         <v>77550</v>
@@ -2509,14 +2511,14 @@
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>628030.2196984198</v>
+        <v>628160.9420623753</v>
       </c>
       <c r="R17" t="n">
-        <v>6943835.983260213</v>
+        <v>6944048.470567195</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2585,10 +2587,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111666918</v>
+        <v>111667763</v>
       </c>
       <c r="B18" t="n">
-        <v>77550</v>
+        <v>89845</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2597,39 +2599,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>185</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>627981.5521892406</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R18" t="n">
-        <v>6943733.609182604</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2698,10 +2700,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111667877</v>
+        <v>111667731</v>
       </c>
       <c r="B19" t="n">
-        <v>56543</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2714,21 +2716,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2739,10 +2741,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>628073.1002953692</v>
+        <v>628005.9220808987</v>
       </c>
       <c r="R19" t="n">
-        <v>6944660.366756786</v>
+        <v>6944356.817101943</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2811,7 +2813,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111667977</v>
+        <v>111667081</v>
       </c>
       <c r="B20" t="n">
         <v>77550</v>
@@ -2848,14 +2850,14 @@
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>628025.0361159063</v>
+        <v>628030.2196984198</v>
       </c>
       <c r="R20" t="n">
-        <v>6944745.60709906</v>
+        <v>6943835.983260213</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2924,10 +2926,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111668301</v>
+        <v>111667877</v>
       </c>
       <c r="B21" t="n">
-        <v>77550</v>
+        <v>56543</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2940,21 +2942,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2965,10 +2967,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>627869.5672010599</v>
+        <v>628073.1002953692</v>
       </c>
       <c r="R21" t="n">
-        <v>6944134.919311633</v>
+        <v>6944660.366756786</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3037,10 +3039,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111668313</v>
+        <v>111667977</v>
       </c>
       <c r="B22" t="n">
-        <v>56543</v>
+        <v>77550</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3053,21 +3055,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103021</v>
+        <v>185</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3078,10 +3080,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>627869.5672010599</v>
+        <v>628025.0361159063</v>
       </c>
       <c r="R22" t="n">
-        <v>6944134.919311633</v>
+        <v>6944745.60709906</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3150,10 +3152,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111667731</v>
+        <v>111668151</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3166,21 +3168,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3191,10 +3193,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>628005.9220808987</v>
+        <v>627992.8558976713</v>
       </c>
       <c r="R23" t="n">
-        <v>6944356.817101943</v>
+        <v>6944372.443055111</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3263,7 +3265,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111667927</v>
+        <v>111668301</v>
       </c>
       <c r="B24" t="n">
         <v>77550</v>
@@ -3304,10 +3306,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>628070.1241137966</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R24" t="n">
-        <v>6944749.195084839</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3376,10 +3378,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111667471</v>
+        <v>111667338</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>89425</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3392,35 +3394,35 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>628242.7901880945</v>
+        <v>628206.6965146795</v>
       </c>
       <c r="R25" t="n">
-        <v>6944199.598880037</v>
+        <v>6944047.015808343</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3489,7 +3491,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111667041</v>
+        <v>111667778</v>
       </c>
       <c r="B26" t="n">
         <v>77550</v>
@@ -3526,14 +3528,14 @@
       <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>627994.5336875709</v>
+        <v>628041.295580395</v>
       </c>
       <c r="R26" t="n">
-        <v>6943827.688791481</v>
+        <v>6944396.900308819</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3602,10 +3604,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111668109</v>
+        <v>111668569</v>
       </c>
       <c r="B27" t="n">
-        <v>5135</v>
+        <v>77550</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3614,47 +3616,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>105930</v>
+        <v>185</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>628016.3600143436</v>
+        <v>627931.2258218131</v>
       </c>
       <c r="R27" t="n">
-        <v>6944480.738271755</v>
+        <v>6943686.026669092</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3705,7 +3699,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3724,10 +3717,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111667427</v>
+        <v>111667287</v>
       </c>
       <c r="B28" t="n">
-        <v>77550</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3740,21 +3733,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3765,10 +3758,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>628238.2251299906</v>
+        <v>628191.351562822</v>
       </c>
       <c r="R28" t="n">
-        <v>6944162.548277185</v>
+        <v>6944014.155575473</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3837,10 +3830,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111667231</v>
+        <v>111667281</v>
       </c>
       <c r="B29" t="n">
-        <v>77550</v>
+        <v>85715</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3853,21 +3846,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>185</v>
+        <v>510</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3878,10 +3871,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>628160.9420623753</v>
+        <v>628196.0116143352</v>
       </c>
       <c r="R29" t="n">
-        <v>6944048.470567195</v>
+        <v>6944024.937745438</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3950,10 +3943,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111667778</v>
+        <v>111668109</v>
       </c>
       <c r="B30" t="n">
-        <v>77550</v>
+        <v>5135</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3962,39 +3955,47 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>185</v>
+        <v>105930</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>628041.295580395</v>
+        <v>628016.3600143436</v>
       </c>
       <c r="R30" t="n">
-        <v>6944396.900308819</v>
+        <v>6944480.738271755</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4045,6 +4046,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4063,10 +4065,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111668151</v>
+        <v>111666918</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4079,35 +4081,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>627992.8558976713</v>
+        <v>627981.5521892406</v>
       </c>
       <c r="R31" t="n">
-        <v>6944372.443055111</v>
+        <v>6943733.609182604</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4176,10 +4178,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111667763</v>
+        <v>111667041</v>
       </c>
       <c r="B32" t="n">
-        <v>89845</v>
+        <v>77550</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4188,39 +4190,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1209</v>
+        <v>185</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>628028.5695976926</v>
+        <v>627994.5336875709</v>
       </c>
       <c r="R32" t="n">
-        <v>6944391.799111729</v>
+        <v>6943827.688791481</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4289,10 +4291,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111667281</v>
+        <v>111667927</v>
       </c>
       <c r="B33" t="n">
-        <v>85715</v>
+        <v>77550</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4305,35 +4307,35 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>510</v>
+        <v>185</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>628196.0116143352</v>
+        <v>628070.1241137966</v>
       </c>
       <c r="R33" t="n">
-        <v>6944024.937745438</v>
+        <v>6944749.195084839</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4402,10 +4404,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111668569</v>
+        <v>111668313</v>
       </c>
       <c r="B34" t="n">
-        <v>77550</v>
+        <v>56543</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4418,35 +4420,35 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>185</v>
+        <v>103021</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>627931.2258218131</v>
+        <v>627869.5672010599</v>
       </c>
       <c r="R34" t="n">
-        <v>6943686.026669092</v>
+        <v>6944134.919311633</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4515,10 +4517,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111667773</v>
+        <v>111668169</v>
       </c>
       <c r="B35" t="n">
-        <v>89790</v>
+        <v>89405</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4531,32 +4533,35 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6040186</v>
+        <v>1202</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>628028.5695976926</v>
+        <v>627989.210128115</v>
       </c>
       <c r="R35" t="n">
-        <v>6944391.799111729</v>
+        <v>6944335.430490699</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4607,7 +4612,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4739,10 +4743,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111668169</v>
+        <v>111668160</v>
       </c>
       <c r="B37" t="n">
-        <v>89405</v>
+        <v>89790</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4755,25 +4759,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Ullticka</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
@@ -4834,6 +4835,7 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4852,10 +4854,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111667287</v>
+        <v>111667773</v>
       </c>
       <c r="B38" t="n">
-        <v>78578</v>
+        <v>89790</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4868,35 +4870,32 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Lunglav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>628191.351562822</v>
+        <v>628028.5695976926</v>
       </c>
       <c r="R38" t="n">
-        <v>6944014.155575473</v>
+        <v>6944391.799111729</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4947,6 +4946,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -2248,10 +2248,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111667471</v>
+        <v>111667287</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2264,35 +2264,35 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>628242.7901880945</v>
+        <v>628191</v>
       </c>
       <c r="R15" t="n">
-        <v>6944199.598880037</v>
+        <v>6944014</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2322,19 +2322,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2361,10 +2351,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111667427</v>
+        <v>111667338</v>
       </c>
       <c r="B16" t="n">
-        <v>77550</v>
+        <v>89425</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2377,21 +2367,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>5442</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2402,10 +2392,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>628238.2251299906</v>
+        <v>628207</v>
       </c>
       <c r="R16" t="n">
-        <v>6944162.548277185</v>
+        <v>6944047</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2435,19 +2425,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2474,10 +2454,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111667231</v>
+        <v>111668151</v>
       </c>
       <c r="B17" t="n">
-        <v>77550</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2490,35 +2470,35 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>628160.9420623753</v>
+        <v>627993</v>
       </c>
       <c r="R17" t="n">
-        <v>6944048.470567195</v>
+        <v>6944372</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2548,19 +2528,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2587,10 +2557,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111667763</v>
+        <v>111667927</v>
       </c>
       <c r="B18" t="n">
-        <v>89845</v>
+        <v>77550</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2599,25 +2569,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1209</v>
+        <v>185</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2628,10 +2598,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>628028.5695976926</v>
+        <v>628070</v>
       </c>
       <c r="R18" t="n">
-        <v>6944391.799111729</v>
+        <v>6944749</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2661,19 +2631,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2700,10 +2660,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111667731</v>
+        <v>111668569</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,35 +2676,35 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>628005.9220808987</v>
+        <v>627931</v>
       </c>
       <c r="R19" t="n">
-        <v>6944356.817101943</v>
+        <v>6943686</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2774,19 +2734,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2813,10 +2763,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111667081</v>
+        <v>111667281</v>
       </c>
       <c r="B20" t="n">
-        <v>77550</v>
+        <v>85715</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2829,35 +2779,35 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>185</v>
+        <v>510</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>628030.2196984198</v>
+        <v>628196</v>
       </c>
       <c r="R20" t="n">
-        <v>6943835.983260213</v>
+        <v>6944025</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2887,19 +2837,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2926,10 +2866,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111667877</v>
+        <v>111667763</v>
       </c>
       <c r="B21" t="n">
-        <v>56543</v>
+        <v>89845</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2938,25 +2878,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>1209</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2967,10 +2907,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>628073.1002953692</v>
+        <v>628029</v>
       </c>
       <c r="R21" t="n">
-        <v>6944660.366756786</v>
+        <v>6944392</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3000,19 +2940,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3080,10 +3010,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>628025.0361159063</v>
+        <v>628025</v>
       </c>
       <c r="R22" t="n">
-        <v>6944745.60709906</v>
+        <v>6944746</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3113,19 +3043,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3152,10 +3072,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111668151</v>
+        <v>111667773</v>
       </c>
       <c r="B23" t="n">
-        <v>78578</v>
+        <v>89790</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3168,35 +3088,32 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Lunglav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>627992.8558976713</v>
+        <v>628029</v>
       </c>
       <c r="R23" t="n">
-        <v>6944372.443055111</v>
+        <v>6944392</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3226,27 +3143,18 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3265,10 +3173,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111668301</v>
+        <v>111668160</v>
       </c>
       <c r="B24" t="n">
-        <v>77550</v>
+        <v>89790</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3281,35 +3189,32 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>185</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Violettgrå tagellav</t>
-        </is>
+        <v>6040186</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Leptoporus mollis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Pers.:Fr.) Quél.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>627869.5672010599</v>
+        <v>627989</v>
       </c>
       <c r="R24" t="n">
-        <v>6944134.919311633</v>
+        <v>6944335</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3339,27 +3244,18 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3378,10 +3274,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111667338</v>
+        <v>111668169</v>
       </c>
       <c r="B25" t="n">
-        <v>89425</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3394,35 +3290,35 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5442</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>628206.6965146795</v>
+        <v>627989</v>
       </c>
       <c r="R25" t="n">
-        <v>6944047.015808343</v>
+        <v>6944335</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3452,19 +3348,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3532,10 +3418,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>628041.295580395</v>
+        <v>628041</v>
       </c>
       <c r="R26" t="n">
-        <v>6944396.900308819</v>
+        <v>6944397</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3565,19 +3451,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3604,10 +3480,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111668569</v>
+        <v>111667471</v>
       </c>
       <c r="B27" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3620,35 +3496,35 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>627931.2258218131</v>
+        <v>628243</v>
       </c>
       <c r="R27" t="n">
-        <v>6943686.026669092</v>
+        <v>6944200</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3678,19 +3554,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3717,10 +3583,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111667287</v>
+        <v>111668301</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>77550</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3733,35 +3599,35 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Bladbacken (Bladbacken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>628191.351562822</v>
+        <v>627870</v>
       </c>
       <c r="R28" t="n">
-        <v>6944014.155575473</v>
+        <v>6944135</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3791,19 +3657,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3830,10 +3686,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111667281</v>
+        <v>111667427</v>
       </c>
       <c r="B29" t="n">
-        <v>85715</v>
+        <v>77550</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3846,21 +3702,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>510</v>
+        <v>185</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3871,10 +3727,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>628196.0116143352</v>
+        <v>628238</v>
       </c>
       <c r="R29" t="n">
-        <v>6944024.937745438</v>
+        <v>6944163</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3904,19 +3760,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3943,10 +3789,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111668109</v>
+        <v>111667231</v>
       </c>
       <c r="B30" t="n">
-        <v>5135</v>
+        <v>77550</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3955,47 +3801,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>105930</v>
+        <v>185</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Bladbacken (Bladbacken), Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>628016.3600143436</v>
+        <v>628161</v>
       </c>
       <c r="R30" t="n">
-        <v>6944480.738271755</v>
+        <v>6944048</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4025,28 +3863,17 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4065,7 +3892,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111666918</v>
+        <v>111667725</v>
       </c>
       <c r="B31" t="n">
         <v>77550</v>
@@ -4102,14 +3929,14 @@
       <c r="K31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>627981.5521892406</v>
+        <v>628006</v>
       </c>
       <c r="R31" t="n">
-        <v>6943733.609182604</v>
+        <v>6944357</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4139,19 +3966,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4178,10 +3995,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111667041</v>
+        <v>111668109</v>
       </c>
       <c r="B32" t="n">
-        <v>77550</v>
+        <v>5135</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4190,39 +4007,47 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>185</v>
+        <v>105930</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>627994.5336875709</v>
+        <v>628016</v>
       </c>
       <c r="R32" t="n">
-        <v>6943827.688791481</v>
+        <v>6944481</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4252,27 +4077,18 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4291,7 +4107,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111667927</v>
+        <v>111666918</v>
       </c>
       <c r="B33" t="n">
         <v>77550</v>
@@ -4328,14 +4144,14 @@
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>628070.1241137966</v>
+        <v>627982</v>
       </c>
       <c r="R33" t="n">
-        <v>6944749.195084839</v>
+        <v>6943734</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4365,19 +4181,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4445,10 +4251,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>627869.5672010599</v>
+        <v>627870</v>
       </c>
       <c r="R34" t="n">
-        <v>6944134.919311633</v>
+        <v>6944135</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4478,19 +4284,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4517,10 +4313,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111668169</v>
+        <v>111667877</v>
       </c>
       <c r="B35" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4533,21 +4329,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4558,10 +4354,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>627989.210128115</v>
+        <v>628073</v>
       </c>
       <c r="R35" t="n">
-        <v>6944335.430490699</v>
+        <v>6944660</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4591,19 +4387,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4630,10 +4416,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111667725</v>
+        <v>111667731</v>
       </c>
       <c r="B36" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4646,21 +4432,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4671,10 +4457,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>628005.9220808987</v>
+        <v>628006</v>
       </c>
       <c r="R36" t="n">
-        <v>6944356.817101943</v>
+        <v>6944357</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4704,19 +4490,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4743,10 +4519,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111668160</v>
+        <v>111667081</v>
       </c>
       <c r="B37" t="n">
-        <v>89790</v>
+        <v>77550</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4759,32 +4535,35 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6040186</v>
+        <v>185</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>627989.210128115</v>
+        <v>628030</v>
       </c>
       <c r="R37" t="n">
-        <v>6944335.430490699</v>
+        <v>6943836</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4814,28 +4593,17 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4854,10 +4622,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111667773</v>
+        <v>111667041</v>
       </c>
       <c r="B38" t="n">
-        <v>89790</v>
+        <v>77550</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4870,32 +4638,35 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6040186</v>
+        <v>185</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Violettgrå tagellav</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Leptoporus mollis</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Quél.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>628028.5695976926</v>
+        <v>627995</v>
       </c>
       <c r="R38" t="n">
-        <v>6944391.799111729</v>
+        <v>6943828</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4925,28 +4696,17 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 4875-2019.xlsx
+++ b/artfynd/A 4875-2019.xlsx
@@ -3995,10 +3995,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111668109</v>
+        <v>111666918</v>
       </c>
       <c r="B32" t="n">
-        <v>5135</v>
+        <v>77550</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4007,47 +4007,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>105930</v>
+        <v>185</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Svartflärken (Svartflärken), Mpd</t>
+          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>628016</v>
+        <v>627982</v>
       </c>
       <c r="R32" t="n">
-        <v>6944481</v>
+        <v>6943734</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4088,7 +4080,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4107,10 +4098,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111666918</v>
+        <v>111668313</v>
       </c>
       <c r="B33" t="n">
-        <v>77550</v>
+        <v>56543</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4123,35 +4114,35 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>185</v>
+        <v>103021</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Svartflärksbäcken (Svartflärksbäcken), Mpd</t>
+          <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>627982</v>
+        <v>627870</v>
       </c>
       <c r="R33" t="n">
-        <v>6943734</v>
+        <v>6944135</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4210,7 +4201,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111668313</v>
+        <v>111667877</v>
       </c>
       <c r="B34" t="n">
         <v>56543</v>
@@ -4251,10 +4242,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>627870</v>
+        <v>628073</v>
       </c>
       <c r="R34" t="n">
-        <v>6944135</v>
+        <v>6944660</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4313,10 +4304,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111667877</v>
+        <v>111668109</v>
       </c>
       <c r="B35" t="n">
-        <v>56543</v>
+        <v>5135</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4325,39 +4316,47 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>103021</v>
+        <v>105930</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Svartflärken (Svartflärken), Mpd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>628073</v>
+        <v>628016</v>
       </c>
       <c r="R35" t="n">
-        <v>6944660</v>
+        <v>6944481</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4398,6 +4397,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
